--- a/src/main/webapp/TemplateUpload/Template_ChaoGia_New.xlsx
+++ b/src/main/webapp/TemplateUpload/Template_ChaoGia_New.xlsx
@@ -1,25 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phong\OneDrive\Tài liệu\DHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7145DA-AD63-4C58-BF45-F7B29BCC6F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32256FA5-711A-4CB8-BD41-116153CCD29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
-    <sheet name="Mô tả" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Mô tả" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlcn.WorksheetConnection_TemplateN1AA61" hidden="1">Template!$N$1:$AC$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Range" name="Range" connection="WorksheetConnection_Template!$N$1:$AA$6"/>
+        </x15:modelTables>
+      </x15:dataModel>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +55,7 @@
     <author>Nguyễn Hồng Phong</author>
   </authors>
   <commentList>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{1FCED54E-AA08-4F68-8226-F582A79B36AD}">
+    <comment ref="AK2" authorId="0" shapeId="0" xr:uid="{1FCED54E-AA08-4F68-8226-F582A79B36AD}">
       <text>
         <r>
           <rPr>
@@ -94,20 +109,31 @@
 </comments>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{8D8857B8-164F-4CEE-8AC5-772BFBF10E39}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" xr16:uid="{AA4B2544-2FF2-4DD1-96E7-AFAF3C491061}" name="WorksheetConnection_Template!$N$1:$AA$6" type="102" refreshedVersion="6" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Range" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TemplateN1AA61"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
-    <t>Style (Set)</t>
-  </si>
-  <si>
-    <t>Vendor Target</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Infant</t>
   </si>
@@ -130,115 +156,164 @@
     <t>Giá</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Đơn vị chính</t>
+  </si>
+  <si>
+    <t>BN1</t>
+  </si>
+  <si>
+    <t>BN2</t>
+  </si>
+  <si>
+    <t>BN3</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>DHA</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Các đợt giao hàng khác nhau với số lượng tại mỗi đợt thì điền vào cột P và Q. phát sinh thêm 1 đợt thì thêm 2 cột tương ứng vào ngay sau cột P và Q</t>
+  </si>
+  <si>
+    <t>Cột màu đỏ thì không được điền vào. Cột mà header là "XXX" cũng không cần điền (Cột để làm phân cách)</t>
+  </si>
+  <si>
+    <t>Các cột S-&gt;X sẽ nhập giá các dải cỡ theo chào giá tổng</t>
+  </si>
+  <si>
+    <t>Các cột Z-&gt;AE sẽ nhập số lượng các dải cỡ theo chào giá tổng</t>
+  </si>
+  <si>
+    <t>Với mỗi cặp giá trị các cột N&amp;O , P&amp;Q sẽ được sinh ra 1 line giao hàng cho chào giá tổng</t>
+  </si>
+  <si>
+    <t>Cột AH được đặt công thức để lấy tổng số lượng các dải cỡ từ cột Z-&gt;AE</t>
+  </si>
+  <si>
+    <t>Cột AG được đặt công thức để tính bình quân gia quyền về giá cho các dải cỡ</t>
+  </si>
+  <si>
+    <t>Giá trị cột AG và AH sẽ được lấy vào số lượng và giá CMP cho chào giá tổng. Trong các ngày giao hàng của các line giao hàng thì ngày giao hàng lớn nhất sẽ được lấy làm ngày giao hàng của chào giá tổng</t>
+  </si>
+  <si>
+    <t>Số lượng (Nhập theo bộ nếu là sản phẩm bộ)</t>
+  </si>
+  <si>
+    <t>STT (1)</t>
+  </si>
+  <si>
+    <t>PO (2)</t>
+  </si>
+  <si>
+    <t>Style (Set) (3)</t>
+  </si>
+  <si>
+    <t>Mã SP (Buyer) (4)</t>
+  </si>
+  <si>
+    <t>Tên Sản phẩm (5)</t>
+  </si>
+  <si>
+    <t>Số lượng SP trong bộ (6)</t>
+  </si>
+  <si>
+    <t>Ngày NPL về (7)</t>
+  </si>
+  <si>
+    <t>Phương thức vận chuyển (8)</t>
+  </si>
+  <si>
+    <t>ĐV chính (9)</t>
+  </si>
+  <si>
+    <t>Trạng thái (10)</t>
+  </si>
+  <si>
+    <t>Vendor Target (11)</t>
+  </si>
+  <si>
+    <t>Giá FOB (12)</t>
+  </si>
+  <si>
+    <t>NS Target (13)</t>
+  </si>
+  <si>
+    <t>xxx (14)</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>Sum of Số lượng Sản phẩm đợt 1</t>
+  </si>
+  <si>
+    <t>Sum of Số lượng sản phẩm đợt 2</t>
+  </si>
+  <si>
+    <t>Sum of Số lượng sản phẩm đợt 3</t>
+  </si>
+  <si>
+    <t>Sum of Số lượng sản phẩm đợt 5</t>
+  </si>
+  <si>
+    <t>Sum of Số lượng sản phẩm đợt 4</t>
+  </si>
+  <si>
+    <t>Đợt 1</t>
+  </si>
+  <si>
+    <t>Ngày giao</t>
+  </si>
+  <si>
     <t>Số lượng</t>
   </si>
   <si>
-    <t>ĐV chính</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Đơn vị chính</t>
-  </si>
-  <si>
-    <t>BN1</t>
-  </si>
-  <si>
-    <t>BN2</t>
-  </si>
-  <si>
-    <t>BN3</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>DHA</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Mô tả</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Các đợt giao hàng khác nhau với số lượng tại mỗi đợt thì điền vào cột P và Q. phát sinh thêm 1 đợt thì thêm 2 cột tương ứng vào ngay sau cột P và Q</t>
-  </si>
-  <si>
-    <t>Cột màu đỏ thì không được điền vào. Cột mà header là "XXX" cũng không cần điền (Cột để làm phân cách)</t>
-  </si>
-  <si>
-    <t>Các cột S-&gt;X sẽ nhập giá các dải cỡ theo chào giá tổng</t>
-  </si>
-  <si>
-    <t>Các cột Z-&gt;AE sẽ nhập số lượng các dải cỡ theo chào giá tổng</t>
-  </si>
-  <si>
-    <t>Ngày giao 1</t>
-  </si>
-  <si>
-    <t>Số lượng 1</t>
-  </si>
-  <si>
-    <t>Mã SP (Buyer)</t>
-  </si>
-  <si>
-    <t>Tên Sản phẩm</t>
-  </si>
-  <si>
-    <t>Số lượng SP trong bộ</t>
-  </si>
-  <si>
-    <t>Ngày NPL về</t>
-  </si>
-  <si>
-    <t>Phương thức vận chuyển</t>
-  </si>
-  <si>
-    <t>Trạng thái</t>
-  </si>
-  <si>
-    <t>Ngày giao 2</t>
-  </si>
-  <si>
-    <t>Số lượng 2</t>
-  </si>
-  <si>
-    <t>Giá FOB</t>
-  </si>
-  <si>
-    <t>Số lượng tổng</t>
-  </si>
-  <si>
-    <t>Giá CMP</t>
-  </si>
-  <si>
-    <t>Với mỗi cặp giá trị các cột N&amp;O , P&amp;Q sẽ được sinh ra 1 line giao hàng cho chào giá tổng</t>
-  </si>
-  <si>
-    <t>Cột AH được đặt công thức để lấy tổng số lượng các dải cỡ từ cột Z-&gt;AE</t>
-  </si>
-  <si>
-    <t>Cột AG được đặt công thức để tính bình quân gia quyền về giá cho các dải cỡ</t>
-  </si>
-  <si>
-    <t>Giá trị cột AG và AH sẽ được lấy vào số lượng và giá CMP cho chào giá tổng. Trong các ngày giao hàng của các line giao hàng thì ngày giao hàng lớn nhất sẽ được lấy làm ngày giao hàng của chào giá tổng</t>
+    <t>Đợt 6</t>
+  </si>
+  <si>
+    <t>Đợt 5</t>
+  </si>
+  <si>
+    <t>Đợt 4</t>
+  </si>
+  <si>
+    <t>Đợt 3</t>
+  </si>
+  <si>
+    <t>Đợt 2</t>
+  </si>
+  <si>
+    <t>Đợt 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,7 +346,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,8 +377,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -357,9 +438,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -368,9 +447,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -381,77 +458,29 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -462,6 +491,46 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,6 +547,430 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nguyễn Hồng Phong" refreshedDate="44188.980249768516" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="5" xr:uid="{870425F1-E360-4853-B79B-5ED6B1B051BC}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="N1:AC2" sheet="Template"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="xxx (14)" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Ngày giao 1" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-05-01T00:00:00" maxDate="2021-05-02T00:00:00" count="2">
+        <m/>
+        <d v="2021-05-01T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Số lượng Sản phẩm đợt 1" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="29390" maxValue="29390"/>
+    </cacheField>
+    <cacheField name="Ngày giao 2" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-06-01T00:00:00" maxDate="2021-06-02T00:00:00" count="2">
+        <m/>
+        <d v="2021-06-01T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Số lượng sản phẩm đợt 2" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="24986" maxValue="24986"/>
+    </cacheField>
+    <cacheField name="Ngày giao 3" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-06-16T00:00:00" maxDate="2021-06-17T00:00:00" count="2">
+        <m/>
+        <d v="2021-06-16T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Số lượng sản phẩm đợt 3" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="17828" maxValue="17828"/>
+    </cacheField>
+    <cacheField name="Ngày giao 4" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-08-01T00:00:00" maxDate="2021-08-02T00:00:00" count="2">
+        <m/>
+        <d v="2021-08-01T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Số lượng sản phẩm đợt 4" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="11004" maxValue="11004"/>
+    </cacheField>
+    <cacheField name="Ngày giao 5" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-09-01T00:00:00" maxDate="2021-09-02T00:00:00" count="2">
+        <m/>
+        <d v="2021-09-01T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Số lượng sản phẩm đợt 5" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3615" maxValue="3615"/>
+    </cacheField>
+    <cacheField name="xxx" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Nguyễn Hồng Phong" refreshedDate="44188.98286585648" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{2E9446E8-760B-4652-AE8B-4A51EDC030E5}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="5">
+    <cacheField name="[Measures].[Sum of Số lượng Sản phẩm đợt 1]" caption="Sum of Số lượng Sản phẩm đợt 1" numFmtId="0" hierarchy="16" level="32767"/>
+    <cacheField name="[Measures].[Sum of Số lượng sản phẩm đợt 2]" caption="Sum of Số lượng sản phẩm đợt 2" numFmtId="0" hierarchy="17" level="32767"/>
+    <cacheField name="[Measures].[Sum of Số lượng sản phẩm đợt 3]" caption="Sum of Số lượng sản phẩm đợt 3" numFmtId="0" hierarchy="18" level="32767"/>
+    <cacheField name="[Measures].[Sum of Số lượng sản phẩm đợt 5]" caption="Sum of Số lượng sản phẩm đợt 5" numFmtId="0" hierarchy="19" level="32767"/>
+    <cacheField name="[Measures].[Sum of Số lượng sản phẩm đợt 4]" caption="Sum of Số lượng sản phẩm đợt 4" numFmtId="0" hierarchy="20" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="21">
+    <cacheHierarchy uniqueName="[Range].[xxx (14)]" caption="xxx (14)" attribute="1" defaultMemberUniqueName="[Range].[xxx (14)].[All]" allUniqueName="[Range].[xxx (14)].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Ngày giao 1]" caption="Ngày giao 1" attribute="1" time="1" defaultMemberUniqueName="[Range].[Ngày giao 1].[All]" allUniqueName="[Range].[Ngày giao 1].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Số lượng Sản phẩm đợt 1]" caption="Số lượng Sản phẩm đợt 1" attribute="1" defaultMemberUniqueName="[Range].[Số lượng Sản phẩm đợt 1].[All]" allUniqueName="[Range].[Số lượng Sản phẩm đợt 1].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Ngày giao 2]" caption="Ngày giao 2" attribute="1" time="1" defaultMemberUniqueName="[Range].[Ngày giao 2].[All]" allUniqueName="[Range].[Ngày giao 2].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Số lượng sản phẩm đợt 2]" caption="Số lượng sản phẩm đợt 2" attribute="1" defaultMemberUniqueName="[Range].[Số lượng sản phẩm đợt 2].[All]" allUniqueName="[Range].[Số lượng sản phẩm đợt 2].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Ngày giao 3]" caption="Ngày giao 3" attribute="1" time="1" defaultMemberUniqueName="[Range].[Ngày giao 3].[All]" allUniqueName="[Range].[Ngày giao 3].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Số lượng sản phẩm đợt 3]" caption="Số lượng sản phẩm đợt 3" attribute="1" defaultMemberUniqueName="[Range].[Số lượng sản phẩm đợt 3].[All]" allUniqueName="[Range].[Số lượng sản phẩm đợt 3].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Ngày giao 4]" caption="Ngày giao 4" attribute="1" time="1" defaultMemberUniqueName="[Range].[Ngày giao 4].[All]" allUniqueName="[Range].[Ngày giao 4].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Số lượng sản phẩm đợt 4]" caption="Số lượng sản phẩm đợt 4" attribute="1" defaultMemberUniqueName="[Range].[Số lượng sản phẩm đợt 4].[All]" allUniqueName="[Range].[Số lượng sản phẩm đợt 4].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Ngày giao 5]" caption="Ngày giao 5" attribute="1" time="1" defaultMemberUniqueName="[Range].[Ngày giao 5].[All]" allUniqueName="[Range].[Ngày giao 5].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Số lượng sản phẩm đợt 5]" caption="Số lượng sản phẩm đợt 5" attribute="1" defaultMemberUniqueName="[Range].[Số lượng sản phẩm đợt 5].[All]" allUniqueName="[Range].[Số lượng sản phẩm đợt 5].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Ngày giao 5 2]" caption="Ngày giao 5 2" attribute="1" time="1" defaultMemberUniqueName="[Range].[Ngày giao 5 2].[All]" allUniqueName="[Range].[Ngày giao 5 2].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Số lượng sản phẩm đợt 5 2]" caption="Số lượng sản phẩm đợt 5 2" attribute="1" defaultMemberUniqueName="[Range].[Số lượng sản phẩm đợt 5 2].[All]" allUniqueName="[Range].[Số lượng sản phẩm đợt 5 2].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[xxx]" caption="xxx" attribute="1" defaultMemberUniqueName="[Range].[xxx].[All]" allUniqueName="[Range].[xxx].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Số lượng Sản phẩm đợt 1]" caption="Sum of Số lượng Sản phẩm đợt 1" measure="1" displayFolder="" measureGroup="Range" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Số lượng sản phẩm đợt 2]" caption="Sum of Số lượng sản phẩm đợt 2" measure="1" displayFolder="" measureGroup="Range" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Số lượng sản phẩm đợt 3]" caption="Sum of Số lượng sản phẩm đợt 3" measure="1" displayFolder="" measureGroup="Range" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Số lượng sản phẩm đợt 5]" caption="Sum of Số lượng sản phẩm đợt 5" measure="1" displayFolder="" measureGroup="Range" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Số lượng sản phẩm đợt 4]" caption="Sum of Số lượng sản phẩm đợt 4" measure="1" displayFolder="" measureGroup="Range" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="8"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Range" uniqueName="[Range]" caption="Range"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Range" caption="Range"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="29390"/>
+    <x v="1"/>
+    <n v="24986"/>
+    <x v="1"/>
+    <n v="17828"/>
+    <x v="1"/>
+    <n v="11004"/>
+    <x v="1"/>
+    <n v="3615"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="29390"/>
+    <x v="1"/>
+    <n v="24986"/>
+    <x v="1"/>
+    <n v="17828"/>
+    <x v="1"/>
+    <n v="11004"/>
+    <x v="1"/>
+    <n v="3615"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="29390"/>
+    <x v="1"/>
+    <n v="24986"/>
+    <x v="1"/>
+    <n v="17828"/>
+    <x v="1"/>
+    <n v="11004"/>
+    <x v="1"/>
+    <n v="3615"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="29390"/>
+    <x v="1"/>
+    <n v="24986"/>
+    <x v="1"/>
+    <n v="17828"/>
+    <x v="1"/>
+    <n v="11004"/>
+    <x v="1"/>
+    <n v="3615"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5C0102B-07BE-4D85-80ED-98A93B6485F0}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Sum of Số lượng Sản phẩm đợt 1" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Số lượng sản phẩm đợt 2" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Số lượng sản phẩm đợt 3" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Số lượng sản phẩm đợt 5" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Số lượng sản phẩm đợt 4" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="21">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Template!$N$1:$AA$6">
+        <x15:activeTabTopLevelEntity name="[Range]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0AC633C-5F0E-469A-ADAF-9CC6E0480E29}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="H5:L6" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="12">
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Sum of Số lượng Sản phẩm đợt 1" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Số lượng sản phẩm đợt 2" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Số lượng sản phẩm đợt 3" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Số lượng sản phẩm đợt 5" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Số lượng sản phẩm đợt 4" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,230 +1270,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AS24"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.140625" customWidth="1"/>
-    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" customWidth="1"/>
-    <col min="24" max="24" width="8.5703125" customWidth="1"/>
-    <col min="25" max="25" width="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.140625" customWidth="1"/>
-    <col min="34" max="34" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="28" width="14.140625" customWidth="1"/>
+    <col min="29" max="29" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.28515625" customWidth="1"/>
+    <col min="35" max="35" width="8.5703125" customWidth="1"/>
+    <col min="36" max="36" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:45" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="23"/>
+      <c r="S1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="23"/>
+      <c r="U1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="23"/>
+      <c r="W1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="AE2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="15" t="s">
+      <c r="AH2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="AI2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="16" t="s">
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AP2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="18"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="M3" s="2"/>
-      <c r="AG3">
-        <f xml:space="preserve"> IF(AH3 =0, 0, SUMPRODUCT(S3:X3,Z3:AE3) / AH3)</f>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="2">
-        <f>SUM(Z3:AE3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="M4" s="2"/>
-      <c r="AH4" s="2"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="M5" s="2"/>
-      <c r="AH5" s="2"/>
+      <c r="AQ2" s="15"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="14"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="14"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="14"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="14"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="14"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="14"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="14"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="14"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="14"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="14"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="14"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="14"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="14"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="14"/>
+    </row>
+    <row r="17" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="14"/>
+    </row>
+    <row r="18" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="14"/>
+    </row>
+    <row r="19" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="14"/>
+    </row>
+    <row r="20" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="14"/>
+    </row>
+    <row r="21" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="14"/>
+    </row>
+    <row r="22" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="14"/>
+    </row>
+    <row r="23" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AR23" s="11"/>
+      <c r="AS23" s="14"/>
+    </row>
+    <row r="24" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AR24" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="S1:X1"/>
+  <mergeCells count="24">
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="AQ1:AQ2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="AD1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1013,7 +1621,7 @@
           <x14:formula1>
             <xm:f>'Mô tả'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J11 J13:J1048576</xm:sqref>
+          <xm:sqref>J8:J1048576 J3:J6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1022,11 +1630,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F04EC0-E8B8-416A-8FD3-334E105FD2CB}">
+  <dimension ref="A3:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>117560</v>
+      </c>
+      <c r="B4" s="12">
+        <v>99944</v>
+      </c>
+      <c r="C4" s="12">
+        <v>71312</v>
+      </c>
+      <c r="D4" s="12">
+        <v>14460</v>
+      </c>
+      <c r="E4" s="12">
+        <v>44016</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B84B19-5505-4181-821D-7C46EEF0187B}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,125 +1695,157 @@
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="87" style="13" customWidth="1"/>
+    <col min="5" max="5" width="87" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H6" s="12">
+        <v>117560</v>
+      </c>
+      <c r="I6" s="12">
+        <v>99944</v>
+      </c>
+      <c r="J6" s="12">
+        <v>71312</v>
+      </c>
+      <c r="K6" s="12">
+        <v>14460</v>
+      </c>
+      <c r="L6" s="12">
+        <v>44016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="7">
+        <v>3</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="7">
+        <v>4</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="17" spans="4:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D17" s="7">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D12" s="20" t="s">
+    </row>
+    <row r="18" spans="4:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="7">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="D13" s="20">
-        <v>1</v>
-      </c>
-      <c r="E13" s="21" t="s">
+    </row>
+    <row r="19" spans="4:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D19" s="7">
+        <v>7</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="D14" s="20">
-        <v>2</v>
-      </c>
-      <c r="E14" s="21" t="s">
+    <row r="20" spans="4:5" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="D20" s="7">
+        <v>8</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="20">
-        <v>3</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="20">
-        <v>4</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="D17" s="20">
-        <v>5</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="D18" s="20">
-        <v>6</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="D19" s="20">
-        <v>7</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="D20" s="20">
-        <v>8</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/webapp/TemplateUpload/Template_ChaoGia_New.xlsx
+++ b/src/main/webapp/TemplateUpload/Template_ChaoGia_New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phong\OneDrive\Tài liệu\DHA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GMESApiCore\src\main\webapp\TemplateUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32256FA5-711A-4CB8-BD41-116153CCD29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FC8068-23FA-4B8E-8DAB-E0A84964FBD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Mô tả" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_TemplateN1AA61" hidden="1">Template!$N$1:$AC$2</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TemplateN1AA61" hidden="1">Template!$N$1:$W$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -55,7 +55,7 @@
     <author>Nguyễn Hồng Phong</author>
   </authors>
   <commentList>
-    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="0" shapeId="0" xr:uid="{1FCED54E-AA08-4F68-8226-F582A79B36AD}">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{1FCED54E-AA08-4F68-8226-F582A79B36AD}">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Infant</t>
   </si>
@@ -288,12 +288,6 @@
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Đợt 6</t>
-  </si>
-  <si>
-    <t>Đợt 5</t>
-  </si>
-  <si>
     <t>Đợt 4</t>
   </si>
   <si>
@@ -301,18 +295,16 @@
   </si>
   <si>
     <t>Đợt 2</t>
-  </si>
-  <si>
-    <t>Đợt 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -384,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -453,22 +445,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,11 +477,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -520,6 +505,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -527,9 +515,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -552,7 +537,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nguyễn Hồng Phong" refreshedDate="44188.980249768516" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="5" xr:uid="{870425F1-E360-4853-B79B-5ED6B1B051BC}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="N1:AC2" sheet="Template"/>
+    <worksheetSource ref="N1:W2" sheet="Template"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="xxx (14)" numFmtId="0">
@@ -1270,11 +1255,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS24"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="U2" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,330 +1270,304 @@
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="13" width="9.42578125" customWidth="1"/>
     <col min="14" max="14" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="28" width="14.140625" customWidth="1"/>
-    <col min="29" max="29" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.28515625" customWidth="1"/>
-    <col min="35" max="35" width="8.5703125" customWidth="1"/>
-    <col min="36" max="36" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="16" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="16" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" style="16" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" customWidth="1"/>
+    <col min="23" max="23" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.28515625" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" customWidth="1"/>
+    <col min="30" max="30" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:39" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="18" t="s">
         <v>40</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="22" t="s">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="22" t="s">
+      <c r="R1" s="26"/>
+      <c r="S1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="22" t="s">
+      <c r="T1" s="26"/>
+      <c r="U1" s="25" t="s">
         <v>51</v>
       </c>
+      <c r="V1" s="26"/>
+      <c r="W1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" s="24"/>
       <c r="Z1" s="24"/>
-      <c r="AA1" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="13" t="s">
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="15" t="s">
+      <c r="AE1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AK1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17"/>
+    </row>
+    <row r="2" spans="1:39" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="13"/>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="15" t="s">
         <v>49</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="15" t="s">
         <v>49</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="15" t="s">
         <v>49</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="15" t="s">
         <v>49</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="W2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="4" t="s">
+      <c r="W2" s="13"/>
+      <c r="X2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="5" t="s">
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="15"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="14"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="14"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AR5" s="11"/>
-      <c r="AS5" s="14"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="14"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="14"/>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="14"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="14"/>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AR10" s="11"/>
-      <c r="AS10" s="14"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="14"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="14"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="14"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AR14" s="11"/>
-      <c r="AS14" s="14"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AR15" s="11"/>
-      <c r="AS15" s="14"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AR16" s="11"/>
-      <c r="AS16" s="14"/>
-    </row>
-    <row r="17" spans="33:45" x14ac:dyDescent="0.25">
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="14"/>
-    </row>
-    <row r="18" spans="33:45" x14ac:dyDescent="0.25">
-      <c r="AG18" t="s">
+      <c r="AK2" s="17"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="14"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="14"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="14"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="14"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="14"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="14"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="14"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="14"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="14"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="14"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="14"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="14"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="14"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="14"/>
+    </row>
+    <row r="17" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="14"/>
+    </row>
+    <row r="18" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA18" t="s">
         <v>42</v>
       </c>
-      <c r="AR18" s="11"/>
-      <c r="AS18" s="14"/>
-    </row>
-    <row r="19" spans="33:45" x14ac:dyDescent="0.25">
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="14"/>
-    </row>
-    <row r="20" spans="33:45" x14ac:dyDescent="0.25">
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="14"/>
-    </row>
-    <row r="21" spans="33:45" x14ac:dyDescent="0.25">
-      <c r="AR21" s="11"/>
-      <c r="AS21" s="14"/>
-    </row>
-    <row r="22" spans="33:45" x14ac:dyDescent="0.25">
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="14"/>
-    </row>
-    <row r="23" spans="33:45" x14ac:dyDescent="0.25">
-      <c r="AR23" s="11"/>
-      <c r="AS23" s="14"/>
-    </row>
-    <row r="24" spans="33:45" x14ac:dyDescent="0.25">
-      <c r="AR24" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="14"/>
+    </row>
+    <row r="19" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="14"/>
+    </row>
+    <row r="20" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="14"/>
+    </row>
+    <row r="21" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="14"/>
+    </row>
+    <row r="22" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="14"/>
+    </row>
+    <row r="23" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="14"/>
+    </row>
+    <row r="24" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AL24" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="21">
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AE1:AJ1"/>
+    <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="AD1:AI1"/>
+    <mergeCell ref="X1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/TemplateUpload/Template_ChaoGia_New.xlsx
+++ b/src/main/webapp/TemplateUpload/Template_ChaoGia_New.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GMESApiCore\src\main\webapp\TemplateUpload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GMES_API\GMESApiCore\src\main\webapp\TemplateUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FC8068-23FA-4B8E-8DAB-E0A84964FBD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7997887-037A-4338-98DE-677D3D48D5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
     <sheet name="Mô tả" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_TemplateN1AA61" hidden="1">Template!$N$1:$W$2</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TemplateN1AA61" hidden="1">Template!$O$1:$X$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +55,7 @@
     <author>Nguyễn Hồng Phong</author>
   </authors>
   <commentList>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{1FCED54E-AA08-4F68-8226-F582A79B36AD}">
+    <comment ref="AF2" authorId="0" shapeId="0" xr:uid="{1FCED54E-AA08-4F68-8226-F582A79B36AD}">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>Infant</t>
   </si>
@@ -228,39 +228,6 @@
     <t>Style (Set) (3)</t>
   </si>
   <si>
-    <t>Mã SP (Buyer) (4)</t>
-  </si>
-  <si>
-    <t>Tên Sản phẩm (5)</t>
-  </si>
-  <si>
-    <t>Số lượng SP trong bộ (6)</t>
-  </si>
-  <si>
-    <t>Ngày NPL về (7)</t>
-  </si>
-  <si>
-    <t>Phương thức vận chuyển (8)</t>
-  </si>
-  <si>
-    <t>ĐV chính (9)</t>
-  </si>
-  <si>
-    <t>Trạng thái (10)</t>
-  </si>
-  <si>
-    <t>Vendor Target (11)</t>
-  </si>
-  <si>
-    <t>Giá FOB (12)</t>
-  </si>
-  <si>
-    <t>NS Target (13)</t>
-  </si>
-  <si>
-    <t>xxx (14)</t>
-  </si>
-  <si>
     <t>\</t>
   </si>
   <si>
@@ -295,18 +262,53 @@
   </si>
   <si>
     <t>Đợt 2</t>
+  </si>
+  <si>
+    <t>Style (set vendor) (4)</t>
+  </si>
+  <si>
+    <t>Mã SP (Buyer) (5)</t>
+  </si>
+  <si>
+    <t>Tên Sản phẩm (6)</t>
+  </si>
+  <si>
+    <t>Số lượng SP trong bộ (7)</t>
+  </si>
+  <si>
+    <t>Ngày NPL về (8)</t>
+  </si>
+  <si>
+    <t>Phương thức vận chuyển (9)</t>
+  </si>
+  <si>
+    <t>ĐV chính (10)</t>
+  </si>
+  <si>
+    <t>Trạng thái (11)</t>
+  </si>
+  <si>
+    <t>Vendor Target (12)</t>
+  </si>
+  <si>
+    <t>Giá FOB (13)</t>
+  </si>
+  <si>
+    <t>NS Target (14)</t>
+  </si>
+  <si>
+    <t>xxx (15)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,8 +339,14 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +380,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -483,39 +497,47 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,7 +559,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nguyễn Hồng Phong" refreshedDate="44188.980249768516" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="5" xr:uid="{870425F1-E360-4853-B79B-5ED6B1B051BC}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="N1:W2" sheet="Template"/>
+    <worksheetSource ref="O1:X2" sheet="Template"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="xxx (14)" numFmtId="0">
@@ -777,7 +799,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5C0102B-07BE-4D85-80ED-98A93B6485F0}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5C0102B-07BE-4D85-80ED-98A93B6485F0}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -860,7 +882,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0AC633C-5F0E-469A-ADAF-9CC6E0480E29}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0AC633C-5F0E-469A-ADAF-9CC6E0480E29}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="H5:L6" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="12">
     <pivotField showAll="0">
@@ -1255,319 +1277,455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U2" sqref="U1:U1048576"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="13" width="9.42578125" customWidth="1"/>
-    <col min="14" max="14" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="16" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" style="16" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" customWidth="1"/>
-    <col min="23" max="23" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.28515625" customWidth="1"/>
-    <col min="29" max="29" width="8.5703125" customWidth="1"/>
-    <col min="30" max="30" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="14" width="9.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="16" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="16" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" style="16" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" customWidth="1"/>
+    <col min="24" max="24" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" customWidth="1"/>
+    <col min="31" max="31" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:48" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="24"/>
+      <c r="T1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="24"/>
+      <c r="V1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="24"/>
+      <c r="X1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL2" s="27"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="Q3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="X3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3"/>
+      <c r="AF3" s="16"/>
+      <c r="AH3" s="10"/>
+      <c r="AL3"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="19"/>
+      <c r="AV3" s="10"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="Q4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="X4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4"/>
+      <c r="AF4" s="16"/>
+      <c r="AH4" s="10"/>
+      <c r="AL4"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="19"/>
+      <c r="AV4" s="10"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="Q5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="X5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5"/>
+      <c r="AF5" s="16"/>
+      <c r="AH5" s="10"/>
+      <c r="AL5"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="19"/>
+      <c r="AV5" s="10"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="Q6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="X6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6"/>
+      <c r="AF6" s="16"/>
+      <c r="AH6" s="10"/>
+      <c r="AL6"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="19"/>
+      <c r="AV6" s="10"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="Q7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="X7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7"/>
+      <c r="AF7" s="16"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="19"/>
+      <c r="AV7" s="10"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="Q8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="X8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8"/>
+      <c r="AF8" s="16"/>
+      <c r="AH8" s="10"/>
+      <c r="AL8"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="19"/>
+      <c r="AV8" s="10"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="Q9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="X9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9"/>
+      <c r="AF9" s="16"/>
+      <c r="AH9" s="10"/>
+      <c r="AL9"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="19"/>
+      <c r="AV9" s="10"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="Q10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="X10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10"/>
+      <c r="AF10" s="16"/>
+      <c r="AH10" s="10"/>
+      <c r="AL10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="19"/>
+      <c r="AV10" s="10"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="14"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="14"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="14"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="14"/>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="14"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="14"/>
+    </row>
+    <row r="17" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="14"/>
+    </row>
+    <row r="18" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB18" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" s="26"/>
-      <c r="U1" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="W2" s="13"/>
-      <c r="X2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK2" s="17"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="14"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="14"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="14"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="14"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="14"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="14"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="14"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="14"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="14"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="14"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="14"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="14"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="14"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="14"/>
-    </row>
-    <row r="17" spans="27:39" x14ac:dyDescent="0.25">
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="14"/>
-    </row>
-    <row r="18" spans="27:39" x14ac:dyDescent="0.25">
-      <c r="AA18" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="14"/>
-    </row>
-    <row r="19" spans="27:39" x14ac:dyDescent="0.25">
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="14"/>
-    </row>
-    <row r="20" spans="27:39" x14ac:dyDescent="0.25">
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="14"/>
-    </row>
-    <row r="21" spans="27:39" x14ac:dyDescent="0.25">
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="14"/>
-    </row>
-    <row r="22" spans="27:39" x14ac:dyDescent="0.25">
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="14"/>
-    </row>
-    <row r="23" spans="27:39" x14ac:dyDescent="0.25">
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="14"/>
-    </row>
-    <row r="24" spans="27:39" x14ac:dyDescent="0.25">
-      <c r="AL24" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="14"/>
+    </row>
+    <row r="19" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="14"/>
+    </row>
+    <row r="20" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="14"/>
+    </row>
+    <row r="21" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="14"/>
+    </row>
+    <row r="22" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="14"/>
+    </row>
+    <row r="23" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="14"/>
+    </row>
+    <row r="24" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AM24" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="M1:M2"/>
+  <mergeCells count="22">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="AE1:AJ1"/>
-    <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="X1:AC1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1580,7 +1738,7 @@
           <x14:formula1>
             <xm:f>'Mô tả'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J8:J1048576 J3:J6</xm:sqref>
+          <xm:sqref>K11:K1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1604,19 +1762,19 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1693,19 +1851,19 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">

--- a/src/main/webapp/TemplateUpload/Template_ChaoGia_New.xlsx
+++ b/src/main/webapp/TemplateUpload/Template_ChaoGia_New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GMES_API\GMESApiCore\src\main\webapp\TemplateUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7997887-037A-4338-98DE-677D3D48D5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F316020-EBAB-4946-B1E0-55FF9366B7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Infant</t>
   </si>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t>Style (Set) (3)</t>
-  </si>
-  <si>
-    <t>\</t>
   </si>
   <si>
     <t>Sum of Số lượng Sản phẩm đợt 1</t>
@@ -308,7 +305,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,14 +336,8 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,12 +371,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -501,43 +486,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,7 +776,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5C0102B-07BE-4D85-80ED-98A93B6485F0}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5C0102B-07BE-4D85-80ED-98A93B6485F0}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -882,7 +859,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0AC633C-5F0E-469A-ADAF-9CC6E0480E29}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0AC633C-5F0E-469A-ADAF-9CC6E0480E29}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="H5:L6" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="12">
     <pivotField showAll="0">
@@ -1277,11 +1254,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV24"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,133 +1291,133 @@
     <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:40" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="N1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="O1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="23" t="s">
+      <c r="P1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="23" t="s">
+      <c r="S1" s="26"/>
+      <c r="T1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="24"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="26"/>
       <c r="X1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="27" t="s">
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="29" t="s">
+      <c r="AF1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="27" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="26"/>
+    <row r="2" spans="1:40" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="18"/>
       <c r="O2" s="13"/>
       <c r="P2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="T2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="V2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="X2" s="13"/>
       <c r="Y2" s="4" t="s">
@@ -1461,7 +1438,7 @@
       <c r="AD2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="27"/>
+      <c r="AE2" s="19"/>
       <c r="AF2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1480,230 +1457,67 @@
       <c r="AK2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="27"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="Q3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="X3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3"/>
-      <c r="AF3" s="16"/>
-      <c r="AH3" s="10"/>
-      <c r="AL3"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="19"/>
-      <c r="AV3" s="10"/>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="Q4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="X4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4"/>
-      <c r="AF4" s="16"/>
-      <c r="AH4" s="10"/>
-      <c r="AL4"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="19"/>
-      <c r="AV4" s="10"/>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="Q5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="X5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5"/>
-      <c r="AF5" s="16"/>
-      <c r="AH5" s="10"/>
-      <c r="AL5"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="19"/>
-      <c r="AV5" s="10"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="Q6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="X6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6"/>
-      <c r="AF6" s="16"/>
-      <c r="AH6" s="10"/>
-      <c r="AL6"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="19"/>
-      <c r="AV6" s="10"/>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="Q7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="X7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7"/>
-      <c r="AF7" s="16"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="19"/>
-      <c r="AV7" s="10"/>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="Q8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="X8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8"/>
-      <c r="AF8" s="16"/>
-      <c r="AH8" s="10"/>
-      <c r="AL8"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="19"/>
-      <c r="AV8" s="10"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="Q9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="X9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9"/>
-      <c r="AF9" s="16"/>
-      <c r="AH9" s="10"/>
-      <c r="AL9"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="19"/>
-      <c r="AV9" s="10"/>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="Q10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="X10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10"/>
-      <c r="AF10" s="16"/>
-      <c r="AH10" s="10"/>
-      <c r="AL10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="19"/>
-      <c r="AV10" s="10"/>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AL2" s="19"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="14"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="14"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="14"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="14"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="14"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="14"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="14"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="14"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AM11" s="11"/>
       <c r="AN11" s="14"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AM12" s="11"/>
       <c r="AN12" s="14"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AM13" s="11"/>
       <c r="AN13" s="14"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AM14" s="11"/>
       <c r="AN14" s="14"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AM15" s="11"/>
-      <c r="AN15" s="14"/>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="AM16" s="11"/>
-      <c r="AN16" s="14"/>
-    </row>
-    <row r="17" spans="28:40" x14ac:dyDescent="0.25">
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="14"/>
-    </row>
-    <row r="18" spans="28:40" x14ac:dyDescent="0.25">
-      <c r="AB18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="14"/>
-    </row>
-    <row r="19" spans="28:40" x14ac:dyDescent="0.25">
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="14"/>
-    </row>
-    <row r="20" spans="28:40" x14ac:dyDescent="0.25">
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="14"/>
-    </row>
-    <row r="21" spans="28:40" x14ac:dyDescent="0.25">
-      <c r="AM21" s="11"/>
-      <c r="AN21" s="14"/>
-    </row>
-    <row r="22" spans="28:40" x14ac:dyDescent="0.25">
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="14"/>
-    </row>
-    <row r="23" spans="28:40" x14ac:dyDescent="0.25">
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="14"/>
-    </row>
-    <row r="24" spans="28:40" x14ac:dyDescent="0.25">
-      <c r="AM24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="AL1:AL2"/>
     <mergeCell ref="N1:N2"/>
@@ -1720,12 +1534,6 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1738,7 +1546,7 @@
           <x14:formula1>
             <xm:f>'Mô tả'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K11:K1048576</xm:sqref>
+          <xm:sqref>K3:K1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1762,19 +1570,19 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1851,19 +1659,19 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
